--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ucn3-Crhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ucn3-Crhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>Crhr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +519,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,158 +540,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08012833333333333</v>
+        <v>0.256228</v>
       </c>
       <c r="N2">
-        <v>0.240385</v>
+        <v>0.768684</v>
       </c>
       <c r="O2">
-        <v>0.1987661507574918</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1987661507574918</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0005075862822222221</v>
+        <v>0.001623118970666667</v>
       </c>
       <c r="R2">
-        <v>0.00456827654</v>
+        <v>0.014608070736</v>
       </c>
       <c r="S2">
-        <v>0.1987661507574918</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.1987661507574918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.006334666666666666</v>
-      </c>
-      <c r="H3">
-        <v>0.019004</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.05132733333333333</v>
-      </c>
-      <c r="N3">
-        <v>0.153982</v>
-      </c>
-      <c r="O3">
-        <v>0.1273224594959756</v>
-      </c>
-      <c r="P3">
-        <v>0.1273224594959756</v>
-      </c>
-      <c r="Q3">
-        <v>0.0003251415475555555</v>
-      </c>
-      <c r="R3">
-        <v>0.002926273928</v>
-      </c>
-      <c r="S3">
-        <v>0.1273224594959756</v>
-      </c>
-      <c r="T3">
-        <v>0.1273224594959756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.006334666666666666</v>
-      </c>
-      <c r="H4">
-        <v>0.019004</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.271673</v>
-      </c>
-      <c r="N4">
-        <v>0.8150189999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.6739113897465325</v>
-      </c>
-      <c r="P4">
-        <v>0.6739113897465325</v>
-      </c>
-      <c r="Q4">
-        <v>0.001720957897333333</v>
-      </c>
-      <c r="R4">
-        <v>0.015488621076</v>
-      </c>
-      <c r="S4">
-        <v>0.6739113897465325</v>
-      </c>
-      <c r="T4">
-        <v>0.6739113897465325</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
